--- a/ResultsCodeTable.xlsx
+++ b/ResultsCodeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Rog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098EA8E-AADA-460E-9B3C-53F1CEDC689B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF0CBB-9514-4E90-A9F4-A2C90F18745A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1185" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="4065" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Success</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Repeated request</t>
+  </si>
+  <si>
+    <t>result batlle is wrong (server)</t>
+  </si>
+  <si>
+    <t>user id is incorrect (server))</t>
+  </si>
+  <si>
+    <t>enemy lvl is wrong (server)</t>
+  </si>
+  <si>
+    <t>enemy type is wrong (server)</t>
+  </si>
+  <si>
+    <t>zone mode is wrong (server)</t>
   </si>
 </sst>
 </file>
@@ -360,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,19 +420,114 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>2</v>
       </c>
     </row>
